--- a/materials.xlsx
+++ b/materials.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E7" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E8" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="5">
     <tableColumn name="MaterialIndex" id="1"/>
     <tableColumn name="ColorRed" id="2"/>
@@ -427,7 +427,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1">
         <v>0.0</v>
@@ -436,11 +436,11 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="b">
-        <f t="shared" ref="I2:I7" si="1">ISNUMBER(A2)</f>
+        <f t="shared" ref="I2:I8" si="1">ISNUMBER(A2)</f>
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -455,16 +455,16 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="b">
@@ -486,13 +486,13 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="b">
@@ -511,16 +511,16 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="b">
@@ -539,16 +539,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1">
         <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="b">
@@ -561,10 +561,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="1">
         <v>1.0</v>
@@ -578,13 +578,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="I1:I1001">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH(("TRUE"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
+  <conditionalFormatting sqref="I1:I1001">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH(("FALSE"),(I1))))</formula>
     </cfRule>
